--- a/perf.xlsx
+++ b/perf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/53b9cf3e304aff00/Documents/HES/Master/TSM_EmbHardw/Labo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="172" documentId="8_{EA756419-CE8D-45B8-A6BA-0CB38AB86942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34E2EBEE-F9E6-453A-B9B1-55946E871D98}"/>
+  <xr:revisionPtr revIDLastSave="185" documentId="8_{EA756419-CE8D-45B8-A6BA-0CB38AB86942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAD29141-F956-4EB5-936A-117FDFAD05A3}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{DFAE4888-81D3-4713-9577-9E4DA3A80FD2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DFAE4888-81D3-4713-9577-9E4DA3A80FD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>Test</t>
   </si>
@@ -118,7 +118,16 @@
 complete</t>
   </si>
   <si>
-    <t xml:space="preserve">Use local variables to store intermediate results, </t>
+    <t>Use local variables to store intermediate results, use abs</t>
+  </si>
+  <si>
+    <t>5-4</t>
+  </si>
+  <si>
+    <t>Grayscale opti</t>
+  </si>
+  <si>
+    <t>1 equation, shift insteed of /</t>
   </si>
 </sst>
 </file>
@@ -202,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -222,35 +231,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -259,6 +262,9 @@
         <b/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -308,6 +314,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{05A166F0-0790-4D82-AA64-8363448ED1AF}" name="Table1" displayName="Table1" ref="B2:J18" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="B2:J18" xr:uid="{05A166F0-0790-4D82-AA64-8363448ED1AF}"/>
@@ -315,14 +325,14 @@
     <tableColumn id="1" xr3:uid="{0DD62D41-FAE0-4B02-9A1E-39F936109BBD}" name="Test"/>
     <tableColumn id="2" xr3:uid="{F5116FA2-8F65-486D-B454-DD8189D8E41A}" name="Compiler _x000a_options" dataDxfId="7"/>
     <tableColumn id="3" xr3:uid="{C2C2DA2D-D5F8-490E-BD62-271205204301}" name="Grayscale" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{5625D733-4211-4B3B-81F8-E7EC62E32748}" name="Sobel_x000a_complete" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{5287373F-A69E-4ABC-A528-3FB7E14A7C80}" name="Sobel x" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{3460BEEC-B7DD-45FE-8984-ED719D73C04C}" name="Sobel y" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{29D13E4F-CED5-45FD-B5BA-A971D5A5B065}" name="Threshold" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{76C1046A-0B04-43C5-BB11-B77D45C17EED}" name="Total" dataDxfId="2">
+    <tableColumn id="10" xr3:uid="{5625D733-4211-4B3B-81F8-E7EC62E32748}" name="Sobel_x000a_complete" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{5287373F-A69E-4ABC-A528-3FB7E14A7C80}" name="Sobel x" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{3460BEEC-B7DD-45FE-8984-ED719D73C04C}" name="Sobel y" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{29D13E4F-CED5-45FD-B5BA-A971D5A5B065}" name="Threshold" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{76C1046A-0B04-43C5-BB11-B77D45C17EED}" name="Total" dataDxfId="1">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[Grayscale]:[Threshold]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{BD3DA42D-07B6-40AC-92EC-9538F2497184}" name="Comments" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{BD3DA42D-07B6-40AC-92EC-9538F2497184}" name="Comments" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -627,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{689FC49A-C116-478A-BB6D-B7290A61D6A4}">
   <dimension ref="A2:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -639,7 +649,7 @@
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="7" width="9.26953125" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="10" max="10" width="45.36328125" customWidth="1"/>
+    <col min="10" max="10" width="49.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
@@ -675,7 +685,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B3" t="s">
@@ -701,10 +711,10 @@
         <f>SUM(Table1[[#This Row],[Grayscale]:[Threshold]])</f>
         <v>8467</v>
       </c>
-      <c r="J3" s="13"/>
+      <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B4" t="s">
@@ -730,10 +740,10 @@
         <f>SUM(Table1[[#This Row],[Grayscale]:[Threshold]])</f>
         <v>1570</v>
       </c>
-      <c r="J4" s="13"/>
+      <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B5" t="s">
@@ -759,10 +769,10 @@
         <f>SUM(Table1[[#This Row],[Grayscale]:[Threshold]])</f>
         <v>1337</v>
       </c>
-      <c r="J5" s="13"/>
+      <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B6" t="s">
@@ -788,10 +798,10 @@
         <f>SUM(Table1[[#This Row],[Grayscale]:[Threshold]])</f>
         <v>545</v>
       </c>
-      <c r="J6" s="13"/>
+      <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B7" t="s">
@@ -817,10 +827,10 @@
         <f>SUM(Table1[[#This Row],[Grayscale]:[Threshold]])</f>
         <v>6807</v>
       </c>
-      <c r="J7" s="13"/>
+      <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B8" t="s">
@@ -846,10 +856,10 @@
         <f>SUM(Table1[[#This Row],[Grayscale]:[Threshold]])</f>
         <v>5606</v>
       </c>
-      <c r="J8" s="13"/>
+      <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
@@ -875,12 +885,12 @@
         <f>SUM(Table1[[#This Row],[Grayscale]:[Threshold]])</f>
         <v>3855</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="J9" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
@@ -906,7 +916,7 @@
         <f>SUM(Table1[[#This Row],[Grayscale]:[Threshold]])</f>
         <v>545</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="11" t="s">
         <v>23</v>
       </c>
     </row>
@@ -937,12 +947,12 @@
         <f>SUM(Table1[[#This Row],[Grayscale]:[Threshold]])</f>
         <v>545</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="J11" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B12" t="s">
@@ -964,27 +974,42 @@
         <f>SUM(Table1[[#This Row],[Grayscale]:[Threshold]])</f>
         <v>375</v>
       </c>
-      <c r="J12" s="13" t="s">
+      <c r="J12" s="11" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="7"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="A13" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1">
+        <v>75</v>
+      </c>
+      <c r="E13" s="1">
+        <v>259</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="5">
         <f>SUM(Table1[[#This Row],[Grayscale]:[Threshold]])</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="13"/>
+        <v>334</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="8"/>
-      <c r="C14" s="1"/>
+      <c r="A14" s="1">
+        <v>6</v>
+      </c>
+      <c r="C14" s="4"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -994,7 +1019,7 @@
         <f>SUM(Table1[[#This Row],[Grayscale]:[Threshold]])</f>
         <v>0</v>
       </c>
-      <c r="J14" s="13"/>
+      <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="7"/>
@@ -1008,10 +1033,10 @@
         <f>SUM(Table1[[#This Row],[Grayscale]:[Threshold]])</f>
         <v>0</v>
       </c>
-      <c r="J15" s="13"/>
+      <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="8"/>
+      <c r="A16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1022,7 +1047,7 @@
         <f>SUM(Table1[[#This Row],[Grayscale]:[Threshold]])</f>
         <v>0</v>
       </c>
-      <c r="J16" s="13"/>
+      <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="7"/>
@@ -1036,10 +1061,10 @@
         <f>SUM(Table1[[#This Row],[Grayscale]:[Threshold]])</f>
         <v>0</v>
       </c>
-      <c r="J17" s="13"/>
+      <c r="J17" s="11"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="9"/>
+      <c r="A18" s="8"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1050,7 +1075,7 @@
         <f>SUM(Table1[[#This Row],[Grayscale]:[Threshold]])</f>
         <v>0</v>
       </c>
-      <c r="J18" s="13"/>
+      <c r="J18" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/perf.xlsx
+++ b/perf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/53b9cf3e304aff00/Documents/HES/Master/TSM_EmbHardw/Labo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="185" documentId="8_{EA756419-CE8D-45B8-A6BA-0CB38AB86942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAD29141-F956-4EB5-936A-117FDFAD05A3}"/>
+  <xr:revisionPtr revIDLastSave="189" documentId="8_{EA756419-CE8D-45B8-A6BA-0CB38AB86942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B4974A5-0719-475F-8DF6-733212B3E254}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DFAE4888-81D3-4713-9577-9E4DA3A80FD2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
   <si>
     <t>Test</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>1 equation, shift insteed of /</t>
+  </si>
+  <si>
+    <t>Cache I/D 16k</t>
   </si>
 </sst>
 </file>
@@ -638,7 +641,7 @@
   <dimension ref="A2:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1009,15 +1012,24 @@
       <c r="A14" s="1">
         <v>6</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1">
+        <v>32</v>
+      </c>
+      <c r="E14" s="1">
+        <v>108</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="5">
         <f>SUM(Table1[[#This Row],[Grayscale]:[Threshold]])</f>
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="J14" s="11"/>
     </row>

--- a/perf.xlsx
+++ b/perf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/53b9cf3e304aff00/Documents/HES/Master/TSM_EmbHardw/Labo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="189" documentId="8_{EA756419-CE8D-45B8-A6BA-0CB38AB86942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B4974A5-0719-475F-8DF6-733212B3E254}"/>
+  <xr:revisionPtr revIDLastSave="230" documentId="8_{EA756419-CE8D-45B8-A6BA-0CB38AB86942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54B46078-FC2C-41E3-9B5D-F7F534ADFA28}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DFAE4888-81D3-4713-9577-9E4DA3A80FD2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DFAE4888-81D3-4713-9577-9E4DA3A80FD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
   <si>
     <t>Test</t>
   </si>
@@ -131,6 +131,30 @@
   </si>
   <si>
     <t>Cache I/D 16k</t>
+  </si>
+  <si>
+    <t>CI threshold</t>
+  </si>
+  <si>
+    <t>Use memcpy to otpimize cache uses. Work line by line (in the threshold for example)</t>
+  </si>
+  <si>
+    <t>grayscale 4 time in //</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Use memcpy</t>
+  </si>
+  <si>
+    <t>Get each line with mem cpy</t>
+  </si>
+  <si>
+    <t>Activate pipline</t>
+  </si>
+  <si>
+    <t>= 2.57 FPS</t>
   </si>
 </sst>
 </file>
@@ -214,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -251,6 +275,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -315,10 +352,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -638,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{689FC49A-C116-478A-BB6D-B7290A61D6A4}">
-  <dimension ref="A2:J18"/>
+  <dimension ref="A2:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1034,46 +1067,82 @@
       <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="7"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="A15" s="7">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1">
+        <v>30</v>
+      </c>
+      <c r="E15" s="1">
+        <v>104</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="5">
         <f>SUM(Table1[[#This Row],[Grayscale]:[Threshold]])</f>
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="A16" s="1">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1">
+        <v>32</v>
+      </c>
+      <c r="E16" s="1">
+        <v>71</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="5">
         <f>SUM(Table1[[#This Row],[Grayscale]:[Threshold]])</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="11"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="7"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="5">
-        <f>SUM(Table1[[#This Row],[Grayscale]:[Threshold]])</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="11"/>
+        <v>103</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="13">
+        <v>7</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="16">
+        <v>32</v>
+      </c>
+      <c r="E17" s="16">
+        <v>66</v>
+      </c>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16">
+        <v>97</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
@@ -1089,6 +1158,19 @@
       </c>
       <c r="J18" s="11"/>
     </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/perf.xlsx
+++ b/perf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/53b9cf3e304aff00/Documents/HES/Master/TSM_EmbHardw/Labo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="230" documentId="8_{EA756419-CE8D-45B8-A6BA-0CB38AB86942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54B46078-FC2C-41E3-9B5D-F7F534ADFA28}"/>
+  <xr:revisionPtr revIDLastSave="299" documentId="8_{EA756419-CE8D-45B8-A6BA-0CB38AB86942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2215EFE-AFE2-4C3F-9089-07061CA7ACB2}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DFAE4888-81D3-4713-9577-9E4DA3A80FD2}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10240" xr2:uid="{DFAE4888-81D3-4713-9577-9E4DA3A80FD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
   <si>
     <t>Test</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Threshold</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>Without optimization</t>
   </si>
   <si>
@@ -103,9 +100,6 @@
   </si>
   <si>
     <t>Sobel optimization</t>
-  </si>
-  <si>
-    <t>Loop-unrolling 6x, 1 equation (630 pixels/cycles -O3)</t>
   </si>
   <si>
     <t>Use pointer and sobel</t>
@@ -136,12 +130,6 @@
     <t>CI threshold</t>
   </si>
   <si>
-    <t>Use memcpy to otpimize cache uses. Work line by line (in the threshold for example)</t>
-  </si>
-  <si>
-    <t>grayscale 4 time in //</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -151,10 +139,16 @@
     <t>Get each line with mem cpy</t>
   </si>
   <si>
-    <t>Activate pipline</t>
-  </si>
-  <si>
-    <t>= 2.57 FPS</t>
+    <t>Optimization param. Processor</t>
+  </si>
+  <si>
+    <t>FPS</t>
+  </si>
+  <si>
+    <t>Cycles/pixel</t>
+  </si>
+  <si>
+    <t>Loop-unrolling 9x, 1 equation</t>
   </si>
 </sst>
 </file>
@@ -238,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -289,11 +283,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -354,21 +371,1369 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CH"/>
+              <a:t>Performance</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-CH" baseline="0"/>
+              <a:t> over the optimization</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-CH"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CH"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.1050298037158533E-2"/>
+          <c:y val="0.12032441200324412"/>
+          <c:w val="0.85659240321168251"/>
+          <c:h val="0.69908132865440764"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cycles/pixel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-CH"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$9:$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>In-lining sobel_x and sobel_y</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sobel optimization</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sobel optimization</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sobel complete</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Grayscale opti</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cache I/D 16k</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CI threshold</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Use memcpy</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Optimization param. Processor</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$9:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>97</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5BAD-4C58-9A58-A1802AD03A04}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="412788960"/>
+        <c:axId val="750149568"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FPS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-CH"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$9:$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>In-lining sobel_x and sobel_y</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sobel optimization</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sobel optimization</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sobel complete</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Grayscale opti</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cache I/D 16k</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CI threshold</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Use memcpy</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Optimization param. Processor</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$9:$J$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.40367166832010581</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.46662963493883791</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.46662963493883791</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67816840277777779</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76141661988522957</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8165225074404763</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8978593361318408</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4690597188511325</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>2.59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5BAD-4C58-9A58-A1802AD03A04}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="412785600"/>
+        <c:axId val="755408752"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="412788960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="750149568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="750149568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-CH"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="412788960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="755408752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="412785600"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="412785600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="755408752"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.35579399763704272"/>
+          <c:y val="0.89522619306784912"/>
+          <c:w val="0.28268297089640071"/>
+          <c:h val="0.10276818201870902"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CH"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1783222</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>69337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1372420</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>51210</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FD4ED50-220B-2946-3B60-F0F414CEC3A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{05A166F0-0790-4D82-AA64-8363448ED1AF}" name="Table1" displayName="Table1" ref="B2:J18" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="B2:J18" xr:uid="{05A166F0-0790-4D82-AA64-8363448ED1AF}"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{05A166F0-0790-4D82-AA64-8363448ED1AF}" name="Table1" displayName="Table1" ref="B2:K18" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="B2:K18" xr:uid="{05A166F0-0790-4D82-AA64-8363448ED1AF}"/>
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{0DD62D41-FAE0-4B02-9A1E-39F936109BBD}" name="Test"/>
-    <tableColumn id="2" xr3:uid="{F5116FA2-8F65-486D-B454-DD8189D8E41A}" name="Compiler _x000a_options" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{C2C2DA2D-D5F8-490E-BD62-271205204301}" name="Grayscale" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{5625D733-4211-4B3B-81F8-E7EC62E32748}" name="Sobel_x000a_complete" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{5287373F-A69E-4ABC-A528-3FB7E14A7C80}" name="Sobel x" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{3460BEEC-B7DD-45FE-8984-ED719D73C04C}" name="Sobel y" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{29D13E4F-CED5-45FD-B5BA-A971D5A5B065}" name="Threshold" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{76C1046A-0B04-43C5-BB11-B77D45C17EED}" name="Total" dataDxfId="1">
+    <tableColumn id="2" xr3:uid="{F5116FA2-8F65-486D-B454-DD8189D8E41A}" name="Compiler _x000a_options" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{C2C2DA2D-D5F8-490E-BD62-271205204301}" name="Grayscale" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{5625D733-4211-4B3B-81F8-E7EC62E32748}" name="Sobel_x000a_complete" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{5287373F-A69E-4ABC-A528-3FB7E14A7C80}" name="Sobel x" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{3460BEEC-B7DD-45FE-8984-ED719D73C04C}" name="Sobel y" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{29D13E4F-CED5-45FD-B5BA-A971D5A5B065}" name="Threshold" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{76C1046A-0B04-43C5-BB11-B77D45C17EED}" name="Cycles/pixel" dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[Grayscale]:[Threshold]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{BD3DA42D-07B6-40AC-92EC-9538F2497184}" name="Comments" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{B0A2C9BB-0429-4619-A27F-5A1A0DF4894B}" name="FPS" dataDxfId="0">
+      <calculatedColumnFormula>50000000/(Table1[[#This Row],[Cycles/pixel]]/196608)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{BD3DA42D-07B6-40AC-92EC-9538F2497184}" name="Comments" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -671,10 +2036,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{689FC49A-C116-478A-BB6D-B7290A61D6A4}">
-  <dimension ref="A2:J21"/>
+  <dimension ref="A2:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="93" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -685,12 +2050,13 @@
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="7" width="9.26953125" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="10" max="10" width="49.08984375" customWidth="1"/>
+    <col min="10" max="10" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="49.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="31" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -702,7 +2068,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>3</v>
@@ -714,21 +2080,24 @@
         <v>5</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1">
         <v>600</v>
@@ -747,17 +2116,18 @@
         <f>SUM(Table1[[#This Row],[Grayscale]:[Threshold]])</f>
         <v>8467</v>
       </c>
-      <c r="J3" s="11"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="11"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="D4" s="1">
         <v>118</v>
@@ -776,17 +2146,18 @@
         <f>SUM(Table1[[#This Row],[Grayscale]:[Threshold]])</f>
         <v>1570</v>
       </c>
-      <c r="J4" s="11"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="11"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1">
         <v>102</v>
@@ -805,17 +2176,18 @@
         <f>SUM(Table1[[#This Row],[Grayscale]:[Threshold]])</f>
         <v>1337</v>
       </c>
-      <c r="J5" s="11"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="11"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1">
         <v>112</v>
@@ -834,17 +2206,18 @@
         <f>SUM(Table1[[#This Row],[Grayscale]:[Threshold]])</f>
         <v>545</v>
       </c>
-      <c r="J6" s="11"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="11"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1">
         <v>661</v>
@@ -863,17 +2236,18 @@
         <f>SUM(Table1[[#This Row],[Grayscale]:[Threshold]])</f>
         <v>6807</v>
       </c>
-      <c r="J7" s="11"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="11"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1">
         <v>664</v>
@@ -892,48 +2266,52 @@
         <f>SUM(Table1[[#This Row],[Grayscale]:[Threshold]])</f>
         <v>5606</v>
       </c>
-      <c r="J8" s="11"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="11"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1">
-        <v>661</v>
+        <v>107</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1">
-        <v>1340</v>
+        <v>219</v>
       </c>
       <c r="G9" s="1">
-        <v>1334</v>
+        <v>220</v>
       </c>
       <c r="H9" s="1">
-        <v>520</v>
+        <v>64</v>
       </c>
       <c r="I9" s="5">
-        <f>SUM(Table1[[#This Row],[Grayscale]:[Threshold]])</f>
-        <v>3855</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>22</v>
+        <v>630</v>
+      </c>
+      <c r="J9" s="18">
+        <f>50000000/(Table1[[#This Row],[Cycles/pixel]]*196608)</f>
+        <v>0.40367166832010581</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="1">
         <v>112</v>
@@ -952,19 +2330,23 @@
         <f>SUM(Table1[[#This Row],[Grayscale]:[Threshold]])</f>
         <v>545</v>
       </c>
-      <c r="J10" s="11" t="s">
-        <v>23</v>
+      <c r="J10" s="18">
+        <f>50000000/(Table1[[#This Row],[Cycles/pixel]]*196608)</f>
+        <v>0.46662963493883791</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="1">
         <v>112</v>
@@ -983,19 +2365,23 @@
         <f>SUM(Table1[[#This Row],[Grayscale]:[Threshold]])</f>
         <v>545</v>
       </c>
-      <c r="J11" s="11" t="s">
-        <v>20</v>
+      <c r="J11" s="18">
+        <f>50000000/(Table1[[#This Row],[Cycles/pixel]]*196608)</f>
+        <v>0.46662963493883791</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" s="1">
         <v>115</v>
@@ -1010,19 +2396,23 @@
         <f>SUM(Table1[[#This Row],[Grayscale]:[Threshold]])</f>
         <v>375</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="18">
+        <f>50000000/(Table1[[#This Row],[Cycles/pixel]]*196608)</f>
+        <v>0.67816840277777779</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
       <c r="C13" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" s="1">
         <v>75</v>
@@ -1037,19 +2427,23 @@
         <f>SUM(Table1[[#This Row],[Grayscale]:[Threshold]])</f>
         <v>334</v>
       </c>
-      <c r="J13" s="11" t="s">
-        <v>29</v>
+      <c r="J13" s="18">
+        <f>50000000/(Table1[[#This Row],[Cycles/pixel]]*196608)</f>
+        <v>0.76141661988522957</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" s="1">
         <v>32</v>
@@ -1064,17 +2458,21 @@
         <f>SUM(Table1[[#This Row],[Grayscale]:[Threshold]])</f>
         <v>140</v>
       </c>
-      <c r="J14" s="11"/>
+      <c r="J14" s="18">
+        <f>50000000/(Table1[[#This Row],[Cycles/pixel]]*196608)</f>
+        <v>1.8165225074404763</v>
+      </c>
+      <c r="K14" s="11"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" s="1">
         <v>30</v>
@@ -1089,17 +2487,21 @@
         <f>SUM(Table1[[#This Row],[Grayscale]:[Threshold]])</f>
         <v>134</v>
       </c>
-      <c r="J15" s="11"/>
+      <c r="J15" s="18">
+        <f>50000000/(Table1[[#This Row],[Cycles/pixel]]*196608)</f>
+        <v>1.8978593361318408</v>
+      </c>
+      <c r="K15" s="11"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" s="1">
         <v>32</v>
@@ -1114,25 +2516,29 @@
         <f>SUM(Table1[[#This Row],[Grayscale]:[Threshold]])</f>
         <v>103</v>
       </c>
-      <c r="J16" s="11" t="s">
-        <v>36</v>
+      <c r="J16" s="18">
+        <f>50000000/(Table1[[#This Row],[Cycles/pixel]]*196608)</f>
+        <v>2.4690597188511325</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="13">
         <v>7</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" s="16">
         <v>32</v>
       </c>
       <c r="E17" s="16">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
@@ -1140,11 +2546,12 @@
       <c r="I17" s="16">
         <v>97</v>
       </c>
-      <c r="J17" s="17" t="s">
-        <v>38</v>
-      </c>
+      <c r="J17" s="5">
+        <v>2.59</v>
+      </c>
+      <c r="K17" s="17"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1156,27 +2563,21 @@
         <f>SUM(Table1[[#This Row],[Grayscale]:[Threshold]])</f>
         <v>0</v>
       </c>
-      <c r="J18" s="11"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="11"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
-        <v>32</v>
-      </c>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>